--- a/HW2/MATLAB code/Q1.xlsx
+++ b/HW2/MATLAB code/Q1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a2468\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\王傳鈞\文件\課程資料\機器學習\homework\HW2\MATLAB code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A61924F-A32D-45CD-9778-181AFA563AD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DEB1CB-7EBB-43DB-B97B-055673ECFBDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8652" xr2:uid="{7CFC0BEC-17BB-4592-B863-78F31F1D18A8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,72 @@
   </si>
   <si>
     <t>FPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>該row往</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"P"</t>
+  </si>
+  <si>
+    <t>"P"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"N"</t>
+  </si>
+  <si>
+    <t>起算，總共看到了幾個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"=FP/(TN+FP)"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"=TP/(TP+FN)"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -114,11 +186,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,6 +489,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>FPR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -466,6 +608,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>TPR</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1113,15 +1311,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>506730</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>201930</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1455420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1446,13 +1644,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD6658E-243B-4C97-8D30-2AD7390357B2}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H22"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.88671875" style="6" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1498,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="1">
-        <f>C2/(C2+F2)</f>
+        <f t="shared" ref="H2:H22" si="0">C2/(C2+F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -1526,11 +1730,11 @@
         <v>9</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G22" si="0">D3/(D3+E3)</f>
+        <f t="shared" ref="G3:G22" si="1">D3/(D3+E3)</f>
         <v>0</v>
       </c>
       <c r="H3" s="1">
-        <f>C3/(C3+F3)</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
@@ -1542,27 +1746,27 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C22" si="1">IF(B4="P",C3+1,C3)</f>
+        <f t="shared" ref="C4:C22" si="2">IF(B4="P",C3+1,C3)</f>
         <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D22" si="2">IF(B4="N",D3+1,D3)</f>
+        <f t="shared" ref="D4:D22" si="3">IF(B4="N",D3+1,D3)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E22" si="3">IF(B4="N",E3-1,E3)</f>
+        <f t="shared" ref="E4:E22" si="4">IF(B4="N",E3-1,E3)</f>
         <v>10</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F22" si="4">IF(B4="P",F3-1,F3)</f>
+        <f t="shared" ref="F4:F22" si="5">IF(B4="P",F3-1,F3)</f>
         <v>8</v>
       </c>
       <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <f>C4/(C4+F4)</f>
         <v>0.2</v>
       </c>
     </row>
@@ -1574,27 +1778,27 @@
         <v>6</v>
       </c>
       <c r="C5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <f>C5/(C5+F5)</f>
         <v>0.3</v>
       </c>
     </row>
@@ -1606,27 +1810,27 @@
         <v>6</v>
       </c>
       <c r="C6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f>C6/(C6+F6)</f>
         <v>0.4</v>
       </c>
     </row>
@@ -1638,27 +1842,27 @@
         <v>7</v>
       </c>
       <c r="C7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="1">
-        <f>C7/(C7+F7)</f>
         <v>0.4</v>
       </c>
     </row>
@@ -1670,27 +1874,27 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="G8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="H8" s="1">
-        <f>C8/(C8+F8)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -1702,27 +1906,27 @@
         <v>6</v>
       </c>
       <c r="C9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="H9" s="1">
-        <f>C9/(C9+F9)</f>
         <v>0.6</v>
       </c>
     </row>
@@ -1734,27 +1938,27 @@
         <v>7</v>
       </c>
       <c r="C10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="H10" s="1">
-        <f>C10/(C10+F10)</f>
         <v>0.6</v>
       </c>
     </row>
@@ -1766,27 +1970,27 @@
         <v>6</v>
       </c>
       <c r="C11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="H11" s="1">
-        <f>C11/(C11+F11)</f>
         <v>0.7</v>
       </c>
     </row>
@@ -1798,27 +2002,27 @@
         <v>7</v>
       </c>
       <c r="C12">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="G12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="H12" s="1">
-        <f>C12/(C12+F12)</f>
         <v>0.7</v>
       </c>
     </row>
@@ -1830,27 +2034,27 @@
         <v>6</v>
       </c>
       <c r="C13">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="H13" s="1">
-        <f>C13/(C13+F13)</f>
         <v>0.8</v>
       </c>
     </row>
@@ -1862,27 +2066,27 @@
         <v>7</v>
       </c>
       <c r="C14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="G14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="H14" s="1">
-        <f>C14/(C14+F14)</f>
         <v>0.8</v>
       </c>
     </row>
@@ -1894,27 +2098,27 @@
         <v>6</v>
       </c>
       <c r="C15">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="H15" s="1">
-        <f>C15/(C15+F15)</f>
         <v>0.9</v>
       </c>
     </row>
@@ -1926,223 +2130,305 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E16">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
       <c r="F16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G16" s="1">
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="1">
-        <f>C16/(C16+F16)</f>
-        <v>0.9</v>
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D17">
+      <c r="C22">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="H17" s="1">
-        <f>C17/(C17+F17)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="H18" s="1">
-        <f>C18/(C18+F18)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="H19" s="1">
-        <f>C19/(C19+F19)</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="F20">
+      <c r="E22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="H20" s="1">
-        <f>C20/(C20+F20)</f>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="H21" s="1">
-        <f>C21/(C21+F21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H22" s="1">
-        <f>C22/(C22+F22)</f>
-        <v>1</v>
-      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="N18:N21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
